--- a/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>8f8fd1f5-817d-4070-9efc-1ec64ddc7251</t>
+    <t>6325034e-5692-4568-9644-8ef5b2cffe2f</t>
   </si>
   <si>
     <t>1-02</t>

--- a/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>6325034e-5692-4568-9644-8ef5b2cffe2f</t>
+    <t>2a5dd414-bbf3-497e-a164-5d05581e3a84</t>
   </si>
   <si>
     <t>1-02</t>

--- a/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>2a5dd414-bbf3-497e-a164-5d05581e3a84</t>
+    <t>6d3c07b5-a1eb-4897-87b2-c1c1baae53c1</t>
   </si>
   <si>
     <t>1-02</t>

--- a/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>6d3c07b5-a1eb-4897-87b2-c1c1baae53c1</t>
+    <t>8743a8c6-4502-4d1f-8d60-653a264ebdb6</t>
   </si>
   <si>
     <t>1-02</t>

--- a/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>8743a8c6-4502-4d1f-8d60-653a264ebdb6</t>
+    <t>3f0cee6d-162c-4686-9c81-86895e47fd0c</t>
   </si>
   <si>
     <t>1-02</t>

--- a/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>3f0cee6d-162c-4686-9c81-86895e47fd0c</t>
+    <t>7f13413b-146e-46fe-8857-fcd4eb9b7ccb</t>
   </si>
   <si>
     <t>1-02</t>
